--- a/service/currentforecastonactivity.xlsx
+++ b/service/currentforecastonactivity.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>458.9</v>
+        <v>713.7</v>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>872</v>
+        <v>1188</v>
       </c>
       <c r="C5" t="n">
-        <v>108</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367</v>
+        <v>508</v>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonactivity.xlsx
+++ b/service/currentforecastonactivity.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>458.9</v>
+        <v>1011.4</v>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>872</v>
+        <v>1467</v>
       </c>
       <c r="C5" t="n">
-        <v>108</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367</v>
+        <v>646</v>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>98</v>
+      </c>
+      <c r="C9" t="n">
         <v>50</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C11" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonactivity.xlsx
+++ b/service/currentforecastonactivity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1011.4</v>
+        <v>2122.9</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
@@ -496,88 +496,101 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1467</v>
+        <v>1529</v>
       </c>
       <c r="C5" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159</v>
+        <v>1134</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>134</v>
+        <v>321</v>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>NOT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>646</v>
+        <v>134</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>TEC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98</v>
+        <v>1307</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>TST</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>VIP</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
           <t>WLC</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>61</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
+      <c r="B12" t="n">
+        <v>130</v>
+      </c>
+      <c r="C12" t="n">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonactivity.xlsx
+++ b/service/currentforecastonactivity.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>11/03/2023</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1444.3</v>
+        <v>1008.8</v>
       </c>
       <c r="C2" t="n">
-        <v>286</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C3" t="n">
-        <v>286</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C4" t="n">
         <v>26</v>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1064</v>
+        <v>678</v>
       </c>
       <c r="C5" t="n">
-        <v>286</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>794</v>
+        <v>536</v>
       </c>
       <c r="C6" t="n">
-        <v>286</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="C7" t="n">
-        <v>286</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C8" t="n">
         <v>28</v>
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1184</v>
+        <v>591</v>
       </c>
       <c r="C9" t="n">
-        <v>286</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C10" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C12" t="n">
-        <v>286</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonactivity.xlsx
+++ b/service/currentforecastonactivity.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1008.8</v>
+        <v>2419.3</v>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="C3" t="n">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>678</v>
+        <v>1469</v>
       </c>
       <c r="C5" t="n">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>536</v>
+        <v>1148</v>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165</v>
+        <v>390</v>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>591</v>
+        <v>1339</v>
       </c>
       <c r="C9" t="n">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="C12" t="n">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonactivity.xlsx
+++ b/service/currentforecastonactivity.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>18/03/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2419.3</v>
+        <v>594.1</v>
       </c>
       <c r="C2" t="n">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>289</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C4" t="n">
         <v>26</v>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1469</v>
+        <v>471</v>
       </c>
       <c r="C5" t="n">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1148</v>
+        <v>314</v>
       </c>
       <c r="C6" t="n">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>390</v>
+        <v>106</v>
       </c>
       <c r="C7" t="n">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C8" t="n">
         <v>28</v>
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1339</v>
+        <v>448</v>
       </c>
       <c r="C9" t="n">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="C10" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonactivity.xlsx
+++ b/service/currentforecastonactivity.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594.1</v>
+        <v>1722.5</v>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="C3" t="n">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>471</v>
+        <v>1163</v>
       </c>
       <c r="C5" t="n">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>314</v>
+        <v>789</v>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>92</v>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>448</v>
+        <v>1253</v>
       </c>
       <c r="C9" t="n">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C12" t="n">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonactivity.xlsx
+++ b/service/currentforecastonactivity.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>18/03/2023</t>
+          <t>21/03/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1722.5</v>
+        <v>707.2</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1163</v>
+        <v>504</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>789</v>
+        <v>364</v>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284</v>
+        <v>110</v>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1253</v>
+        <v>441</v>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonactivity.xlsx
+++ b/service/currentforecastonactivity.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>707.2</v>
+        <v>1501.5</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>120</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>504</v>
+        <v>926</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>364</v>
+        <v>642</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>119</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>441</v>
+        <v>788</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonactivity.xlsx
+++ b/service/currentforecastonactivity.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1501.5</v>
+        <v>601.9</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>926</v>
+        <v>558</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>642</v>
+        <v>366</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>788</v>
+        <v>392</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonactivity.xlsx
+++ b/service/currentforecastonactivity.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>601.9</v>
+        <v>1595.1</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>558</v>
+        <v>1028</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>366</v>
+        <v>758</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>151</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>392</v>
+        <v>821</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonactivity.xlsx
+++ b/service/currentforecastonactivity.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.1</v>
+        <v>2538.9</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1028</v>
+        <v>1447</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>758</v>
+        <v>1083</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>232</v>
+        <v>351</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>151</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>821</v>
+        <v>1251</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonactivity.xlsx
+++ b/service/currentforecastonactivity.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>24/03/2023</t>
+          <t>25/03/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2538.9</v>
+        <v>1666</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1447</v>
+        <v>821</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1083</v>
+        <v>564</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351</v>
+        <v>174</v>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1251</v>
+        <v>778</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonactivity.xlsx
+++ b/service/currentforecastonactivity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>25/03/2023</t>
+          <t>07/04/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1666</v>
+        <v>2139</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>461</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>821</v>
+        <v>1302</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>564</v>
+        <v>1109</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -522,75 +522,62 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>905</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>TST</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>778</v>
+        <v>141</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>WLC</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>52</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonactivity.xlsx
+++ b/service/currentforecastonactivity.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2139</v>
+        <v>2432</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302</v>
+        <v>1434</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1109</v>
+        <v>1232</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>905</v>
+        <v>1013</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
